--- a/Luban/LubanConfig/Datas/#AssetsPathData.xlsx
+++ b/Luban/LubanConfig/Datas/#AssetsPathData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\tower-defense-tengine-demo\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEBCAED-24CE-4070-9ACE-2899B1D6F6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2F9B5-BD2F-478C-9560-1714AF65661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="3930" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="2505" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="161">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,9 +363,6 @@
     <t>虫子</t>
   </si>
   <si>
-    <t>Hoverbuggy</t>
-  </si>
-  <si>
     <t>直升机</t>
   </si>
   <si>
@@ -461,6 +458,95 @@
   </si>
   <si>
     <t>ResourcesName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突击加农炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等离子喷枪炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人炮弹实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyProjectile</t>
+  </si>
+  <si>
+    <t>火箭爆炸特效</t>
+  </si>
+  <si>
+    <t>导弹尾部特效</t>
+  </si>
+  <si>
+    <r>
+      <t>敌人死亡特效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>敌人死亡特效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>敌人减速</t>
+  </si>
+  <si>
+    <t>血条</t>
+  </si>
+  <si>
+    <t>RocketExplosionPfx</t>
+  </si>
+  <si>
+    <t>SupertowerMissileTrail</t>
+  </si>
+  <si>
+    <t>SmallDeathExplosionPfx</t>
+  </si>
+  <si>
+    <t>BigDeathExplosionPfx</t>
+  </si>
+  <si>
+    <t>SlowFx</t>
+  </si>
+  <si>
+    <t>HPBar</t>
+  </si>
+  <si>
+    <t>Hoverbuggy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +564,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFDCDCDC"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -504,9 +604,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,19 +892,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5:D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -829,7 +932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -840,7 +943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -851,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="1">
         <v>101</v>
       </c>
@@ -865,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="B6" s="1">
         <v>102</v>
       </c>
@@ -876,7 +979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="B7" s="1">
         <v>103</v>
       </c>
@@ -887,7 +990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="B8" s="1">
         <v>104</v>
       </c>
@@ -898,7 +1001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="B9" s="1">
         <v>105</v>
       </c>
@@ -909,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="B10" s="1">
         <v>106</v>
       </c>
@@ -920,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="B11" s="1">
         <v>107</v>
       </c>
@@ -931,7 +1034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="B12" s="1">
         <v>1001</v>
       </c>
@@ -942,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="B13" s="1">
         <v>1002</v>
       </c>
@@ -953,7 +1056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="B14" s="1">
         <v>1003</v>
       </c>
@@ -964,7 +1067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="B15" s="1">
         <v>1004</v>
       </c>
@@ -975,7 +1078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="B16" s="1">
         <v>1005</v>
       </c>
@@ -986,7 +1089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="1">
         <v>1006</v>
       </c>
@@ -997,7 +1100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="1">
         <v>1007</v>
       </c>
@@ -1008,7 +1111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" s="1">
         <v>1008</v>
       </c>
@@ -1019,7 +1122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" s="1">
         <v>1009</v>
       </c>
@@ -1030,7 +1133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="B21" s="1">
         <v>1010</v>
       </c>
@@ -1041,532 +1144,686 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>1040</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>1041</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>1042</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>1043</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>1044</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>1045</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>1046</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>1047</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>1048</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15">
+      <c r="B31">
+        <v>1049</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15">
+      <c r="B32">
+        <v>1050</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>1051</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>1052</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>1053</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="1">
         <v>2001</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
+    <row r="37" spans="2:4">
+      <c r="B37" s="1">
         <v>2002</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
+    <row r="38" spans="2:4">
+      <c r="B38" s="1">
         <v>3001</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
+    <row r="39" spans="2:4">
+      <c r="B39" s="1">
         <v>3002</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
+    <row r="40" spans="2:4">
+      <c r="B40" s="1">
         <v>3003</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
+    <row r="41" spans="2:4">
+      <c r="B41" s="1">
         <v>3004</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
+    <row r="42" spans="2:4">
+      <c r="B42" s="1">
         <v>3005</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
+    <row r="43" spans="2:4">
+      <c r="B43" s="1">
         <v>3006</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
+    <row r="44" spans="2:4">
+      <c r="B44" s="1">
         <v>3007</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
+    <row r="45" spans="2:4">
+      <c r="B45" s="1">
         <v>3008</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
+    <row r="46" spans="2:4">
+      <c r="B46" s="1">
         <v>3009</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
+    <row r="47" spans="2:4">
+      <c r="B47" s="1">
         <v>3010</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
+    <row r="48" spans="2:4">
+      <c r="B48" s="1">
         <v>3011</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
+    <row r="49" spans="2:4">
+      <c r="B49" s="1">
         <v>3012</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
+    <row r="50" spans="2:4">
+      <c r="B50" s="1">
         <v>3013</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
+    <row r="51" spans="2:4">
+      <c r="B51" s="1">
         <v>3014</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
+    <row r="52" spans="2:4">
+      <c r="B52" s="1">
         <v>3015</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
+    <row r="53" spans="2:4">
+      <c r="B53" s="1">
         <v>3016</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
+    <row r="54" spans="2:4">
+      <c r="B54" s="1">
         <v>3017</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
+    <row r="55" spans="2:4">
+      <c r="B55" s="1">
         <v>3018</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
+    <row r="56" spans="2:4">
+      <c r="B56" s="1">
         <v>3019</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
+    <row r="57" spans="2:4">
+      <c r="B57" s="1">
         <v>3020</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
+    <row r="58" spans="2:4">
+      <c r="B58" s="1">
         <v>3021</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="1">
+    <row r="59" spans="2:4">
+      <c r="B59" s="1">
         <v>3022</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
+    <row r="60" spans="2:4">
+      <c r="B60" s="1">
         <v>3023</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="1">
+    <row r="61" spans="2:4">
+      <c r="B61" s="1">
         <v>3024</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="1">
+    <row r="62" spans="2:4">
+      <c r="B62" s="1">
         <v>3025</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="1">
+    <row r="63" spans="2:4">
+      <c r="B63" s="1">
         <v>3026</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="1">
+    <row r="64" spans="2:4">
+      <c r="B64" s="1">
         <v>3027</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="1">
+    <row r="65" spans="2:4">
+      <c r="B65" s="1">
         <v>3028</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="1">
+    <row r="66" spans="2:4">
+      <c r="B66" s="1">
         <v>3029</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="1">
+    <row r="67" spans="2:4">
+      <c r="B67" s="1">
         <v>3030</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="1">
+    <row r="68" spans="2:4">
+      <c r="B68" s="1">
         <v>3031</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D68" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="1">
+        <v>3032</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="1">
-        <v>3032</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="1" t="s">
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="1">
+        <v>3033</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="1">
-        <v>3033</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="1" t="s">
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="1">
+        <v>3034</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="1">
-        <v>3034</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="1" t="s">
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="1">
+        <v>3035</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="1">
-        <v>3035</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="1" t="s">
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="1">
+        <v>3036</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="1">
-        <v>3036</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="1" t="s">
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="1">
+        <v>3037</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="1">
-        <v>3037</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="1" t="s">
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="1">
+        <v>3038</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="1">
-        <v>3038</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="1" t="s">
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="1">
+        <v>3039</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="1">
-        <v>3039</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="1" t="s">
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="1">
+        <v>3040</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="1">
-        <v>3040</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="1" t="s">
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="1">
+        <v>3041</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="1">
-        <v>3041</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="1" t="s">
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="1">
+        <v>3042</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="1">
-        <v>3042</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="1" t="s">
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="1">
+        <v>3043</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="1">
-        <v>3043</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="1" t="s">
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="1">
+        <v>3044</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="1">
-        <v>3044</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="D81" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="1">
+        <v>3045</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="1">
-        <v>3045</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="1" t="s">
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="1">
+        <v>3046</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="1">
-        <v>3046</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/LubanConfig/Datas/#AssetsPathData.xlsx
+++ b/Luban/LubanConfig/Datas/#AssetsPathData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2F9B5-BD2F-478C-9560-1714AF65661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E778BE-A4F6-44E2-B999-9F1D857930C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="2505" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10575" yWindow="1695" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,9 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>##type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,25 +408,13 @@
     <t>EntityPlayer</t>
   </si>
   <si>
-    <t>突击加农炮炮弹</t>
-  </si>
-  <si>
     <t>MachineGunProjectile</t>
   </si>
   <si>
-    <t>火箭炮弹</t>
-  </si>
-  <si>
     <t>RocketProjectile</t>
   </si>
   <si>
-    <t>等离子喷枪炮弹</t>
-  </si>
-  <si>
     <t>LaserProjectile</t>
-  </si>
-  <si>
-    <t>导弹阵列炮弹</t>
   </si>
   <si>
     <t>SuperTowerProjectile</t>
@@ -546,7 +531,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BulletHit</t>
+    <t>EnemyShootEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDeathExplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人攻击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮塔爆炸</t>
+  </si>
+  <si>
+    <t>##description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy Fire</t>
+  </si>
+  <si>
+    <t>Macross Placement</t>
+  </si>
+  <si>
+    <t>Weapon Placement 1</t>
+  </si>
+  <si>
+    <t>Weapon Placement 2</t>
+  </si>
+  <si>
+    <t>base_attack</t>
+  </si>
+  <si>
+    <t>zone_enter</t>
+  </si>
+  <si>
+    <t>Enemies Exploding 1</t>
+  </si>
+  <si>
+    <t>Enemies Exploding 2</t>
+  </si>
+  <si>
+    <t>Enemies Exploding 3</t>
+  </si>
+  <si>
+    <t>Enemies Exploding 4</t>
+  </si>
+  <si>
+    <t>Enemies Exploding 5</t>
+  </si>
+  <si>
+    <t>Destruction 1</t>
+  </si>
+  <si>
+    <t>Destruction 2</t>
+  </si>
+  <si>
+    <t>Destruction 3</t>
+  </si>
+  <si>
+    <t>Destruction 4</t>
+  </si>
+  <si>
+    <t>Destruction 5</t>
+  </si>
+  <si>
+    <t>LaserFire</t>
+  </si>
+  <si>
+    <t>MG 1</t>
+  </si>
+  <si>
+    <t>MG 2</t>
+  </si>
+  <si>
+    <t>MG 3</t>
+  </si>
+  <si>
+    <t>MG 4</t>
+  </si>
+  <si>
+    <t>MG 5</t>
+  </si>
+  <si>
+    <t>MG 6</t>
+  </si>
+  <si>
+    <t>MG 7</t>
+  </si>
+  <si>
+    <t>MG 8</t>
+  </si>
+  <si>
+    <t>MG 9</t>
+  </si>
+  <si>
+    <t>MG 10</t>
+  </si>
+  <si>
+    <t>MG 11</t>
+  </si>
+  <si>
+    <t>MG 12</t>
+  </si>
+  <si>
+    <t>MG 13</t>
+  </si>
+  <si>
+    <t>MG 14</t>
+  </si>
+  <si>
+    <t>Rocket Tower Shoot</t>
+  </si>
+  <si>
+    <t>Super Tower Shot 1</t>
+  </si>
+  <si>
+    <t>Super Tower Shot 2</t>
+  </si>
+  <si>
+    <t>Super Tower Shot 3</t>
+  </si>
+  <si>
+    <t>Super Tower Shot 4</t>
+  </si>
+  <si>
+    <t>Super Tower Shot 5</t>
+  </si>
+  <si>
+    <t>Super Tower Shot 6</t>
+  </si>
+  <si>
+    <t>Super Tower Shot 7</t>
+  </si>
+  <si>
+    <t>TD Currency</t>
+  </si>
+  <si>
+    <t>TD Defeat</t>
+  </si>
+  <si>
+    <t>TD EMP Idle</t>
+  </si>
+  <si>
+    <t>TD Tower Sell</t>
+  </si>
+  <si>
+    <t>TD Tower Upgrade</t>
+  </si>
+  <si>
+    <t>TD Victory</t>
+  </si>
+  <si>
+    <t>ui_sound_back</t>
+  </si>
+  <si>
+    <t>ui_sound_forward</t>
+  </si>
+  <si>
+    <t>Game Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Scenes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,14 +1057,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D83"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -912,918 +1078,1290 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="1">
-        <v>101</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="A5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1">
-        <v>1001</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="1">
         <v>1005</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1">
-        <v>1006</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1">
-        <v>1007</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1">
-        <v>1008</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1">
-        <v>1009</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1">
-        <v>1010</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25">
         <v>1040</v>
       </c>
-      <c r="C22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26">
+        <v>1041</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27">
+        <v>1042</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23">
-        <v>1041</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="B28">
+        <v>1043</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29">
+        <v>1044</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30">
+        <v>1045</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31">
+        <v>1046</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32">
+        <v>1047</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24">
-        <v>1042</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25">
-        <v>1043</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26">
-        <v>1044</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27">
-        <v>1045</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28">
-        <v>1046</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29">
-        <v>1047</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30">
-        <v>1048</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15">
-      <c r="B31">
-        <v>1049</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15">
-      <c r="B32">
-        <v>1050</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15">
       <c r="B34">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15">
       <c r="B35">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>1051</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="1">
-        <v>2002</v>
+      <c r="B37">
+        <v>1052</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="1">
-        <v>3001</v>
+      <c r="B38">
+        <v>1053</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="1">
-        <v>3002</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="1">
-        <v>3003</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="2" customFormat="1">
+      <c r="B39" s="2">
+        <v>1054</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="2" customFormat="1">
+      <c r="B40" s="2">
+        <v>1055</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="1">
-        <v>3004</v>
+        <v>2001</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="1">
-        <v>3005</v>
+        <v>2002</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="1">
-        <v>3006</v>
+        <v>3001</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="1">
-        <v>3007</v>
+        <v>3002</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="1">
-        <v>3008</v>
+        <v>3003</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="1">
-        <v>3009</v>
+        <v>3004</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="1">
-        <v>3010</v>
+        <v>3005</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="1">
-        <v>3011</v>
+        <v>3006</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1">
-        <v>3012</v>
+        <v>3007</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="1">
-        <v>3013</v>
+        <v>3008</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="1">
-        <v>3014</v>
+        <v>3009</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1">
-        <v>3015</v>
+        <v>3010</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="1">
-        <v>3016</v>
+        <v>3011</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="1">
-        <v>3017</v>
+        <v>3012</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="1">
-        <v>3018</v>
+        <v>3013</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="1">
-        <v>3019</v>
+        <v>3014</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="1">
-        <v>3020</v>
+        <v>3015</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="1">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="1">
-        <v>3022</v>
+        <v>3017</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1">
-        <v>3023</v>
+        <v>3018</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1">
-        <v>3024</v>
+        <v>3019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="1">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="1">
-        <v>3026</v>
+        <v>3021</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="1">
-        <v>3027</v>
+        <v>3022</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="1">
-        <v>3028</v>
+        <v>3023</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="1">
-        <v>3029</v>
+        <v>3024</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="1">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="1">
-        <v>3031</v>
+        <v>3026</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="1">
-        <v>3032</v>
+        <v>3027</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="1">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="1">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="1">
-        <v>3035</v>
+        <v>3030</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="1">
-        <v>3036</v>
+        <v>3031</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="1">
-        <v>3037</v>
+        <v>3032</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="1">
-        <v>3038</v>
+        <v>3033</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="1">
-        <v>3039</v>
+        <v>3034</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="1">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="1">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="1">
-        <v>3042</v>
+        <v>3037</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="1">
-        <v>3043</v>
+        <v>3038</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="B81" s="1">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" s="1">
+        <v>20001</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="1">
-        <v>3045</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="1">
-        <v>3046</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>138</v>
+    <row r="86" spans="1:4">
+      <c r="B86" s="1">
+        <v>20002</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" s="1">
+        <v>20003</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="1">
+        <v>20004</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89">
+        <v>21001</v>
+      </c>
+      <c r="D89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90">
+        <v>21002</v>
+      </c>
+      <c r="D90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91">
+        <v>22001</v>
+      </c>
+      <c r="D91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92">
+        <v>22002</v>
+      </c>
+      <c r="D92" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93">
+        <v>22003</v>
+      </c>
+      <c r="D93" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94">
+        <v>22004</v>
+      </c>
+      <c r="D94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95">
+        <v>22005</v>
+      </c>
+      <c r="D95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96">
+        <v>23001</v>
+      </c>
+      <c r="D96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97">
+        <v>23002</v>
+      </c>
+      <c r="D97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98">
+        <v>23003</v>
+      </c>
+      <c r="D98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99">
+        <v>23004</v>
+      </c>
+      <c r="D99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100">
+        <v>23005</v>
+      </c>
+      <c r="D100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101">
+        <v>24001</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102">
+        <v>25001</v>
+      </c>
+      <c r="D102" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103">
+        <v>25002</v>
+      </c>
+      <c r="D103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104">
+        <v>25003</v>
+      </c>
+      <c r="D104" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105">
+        <v>25004</v>
+      </c>
+      <c r="D105" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106">
+        <v>25005</v>
+      </c>
+      <c r="D106" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107">
+        <v>25006</v>
+      </c>
+      <c r="D107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108">
+        <v>25007</v>
+      </c>
+      <c r="D108" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109">
+        <v>25008</v>
+      </c>
+      <c r="D109" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110">
+        <v>25009</v>
+      </c>
+      <c r="D110" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111">
+        <v>25010</v>
+      </c>
+      <c r="D111" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112">
+        <v>25011</v>
+      </c>
+      <c r="D112" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113">
+        <v>25012</v>
+      </c>
+      <c r="D113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114">
+        <v>25013</v>
+      </c>
+      <c r="D114" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115">
+        <v>25014</v>
+      </c>
+      <c r="D115" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116">
+        <v>26001</v>
+      </c>
+      <c r="D116" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117">
+        <v>27001</v>
+      </c>
+      <c r="D117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118">
+        <v>27002</v>
+      </c>
+      <c r="D118" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119">
+        <v>27003</v>
+      </c>
+      <c r="D119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120">
+        <v>27004</v>
+      </c>
+      <c r="D120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121">
+        <v>27005</v>
+      </c>
+      <c r="D121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122">
+        <v>27006</v>
+      </c>
+      <c r="D122" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123">
+        <v>27007</v>
+      </c>
+      <c r="D123" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124">
+        <v>30001</v>
+      </c>
+      <c r="D124" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125">
+        <v>30002</v>
+      </c>
+      <c r="D125" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126">
+        <v>30003</v>
+      </c>
+      <c r="D126" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127">
+        <v>30004</v>
+      </c>
+      <c r="D127" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128">
+        <v>30005</v>
+      </c>
+      <c r="D128" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129">
+        <v>30006</v>
+      </c>
+      <c r="D129" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130">
+        <v>30007</v>
+      </c>
+      <c r="D130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131">
+        <v>30008</v>
+      </c>
+      <c r="D131" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
